--- a/Data/Testing_Data.xlsx
+++ b/Data/Testing_Data.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Blood-VL" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Blood-LL_tissue" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Blood-LL_BAL" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Blood-Cytokines" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Blood Cytokines - LL_tissue" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="116">
   <si>
     <t xml:space="preserve">Mouse</t>
   </si>
@@ -278,16 +279,111 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;5.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4.IL-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5.IL-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6.IFN-g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7.TNF-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8.MCP-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10.IL-12p70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2.IL-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3.IL-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4.IL-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5.IL-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6.IL-17A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7.IFN-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B9.GM-CSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;8,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;3,09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2,94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;10,76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1,08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2,16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1,52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;10,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2,09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2,01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-407]General"/>
     <numFmt numFmtId="166" formatCode="[$-407]0"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -377,7 +473,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,6 +487,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,11 +526,11 @@
   </sheetPr>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1559,7 +1671,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1574,11 +1686,11 @@
   </sheetPr>
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.76"/>
@@ -3105,7 +3217,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3124,7 +3236,7 @@
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5702,7 +5814,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5718,10 +5830,10 @@
   <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.76"/>
@@ -9060,7 +9172,2254 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="4" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1" t="n">
+        <v>315895</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>114493</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>26975</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>22202</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>14132</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>235.38</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1" t="n">
+        <v>357012</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>187507</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>28722</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>24737</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>18370</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1" t="n">
+        <v>384036</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>108630</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>35281</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>32520</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>21171</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>71800</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>82600</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>134000</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>533300</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>62.63</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>840000</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>457000</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>551000</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>81.71</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>54.42</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>721000</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>101.12</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" s="6" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>522000</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>265.04</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="6" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>2230</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>21200</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>85.4</v>
+      </c>
+      <c r="S15" s="6" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>163.45</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>90.85</v>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>209.91</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>101.97</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>59.61</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>183.67</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>263</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="1" t="n">
+        <v>168890</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>41319</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>9741</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>7624</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>6804</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="1" t="n">
+        <v>337166</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>74403</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>23704</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>19520</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>13252</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="1" t="n">
+        <v>318142</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>77246</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>18754</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>15193</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>10161</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="0"/>
+      <c r="E23" s="1" t="n">
+        <v>228386</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>97110</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>22711</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>25168</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>29599</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S23" s="6" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="1" t="n">
+        <v>280024</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>88405</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>23831</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>23896</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>34595</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1" t="n">
+        <v>543753</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>111595</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>18764</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>23822</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>41969</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>67.97</v>
+      </c>
+      <c r="S25" s="6" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>216.35</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>60.34</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="1" t="n">
+        <v>347188</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>2972271</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>594147</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>26316</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>483271</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="6" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="R26" s="6" t="n">
+        <v>102.97</v>
+      </c>
+      <c r="S26" s="6" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="T26" s="6" t="n">
+        <v>149.71</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="1" t="n">
+        <v>244734</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1041860</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>348034</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>35584</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>325144</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <v>68.31</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S27" s="6" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="1" t="n">
+        <v>329755</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>919865</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>235586</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>16734</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>279483</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>238.87</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S28" s="6" t="n">
+        <v>84.71</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="M29" s="6" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>9.21</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="6" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="R29" s="6" t="n">
+        <v>60.67</v>
+      </c>
+      <c r="S29" s="6" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="T29" s="6" t="n">
+        <v>156.61</v>
+      </c>
+      <c r="U29" s="6" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="V29" s="6" t="n">
+        <v>56.03</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="1" t="n">
+        <v>295637</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>990779</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>644413</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>1093790</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>1024721</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>62.63</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="1" t="n">
+        <v>542836</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>269101</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>118433</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>137929</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>105655</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M31" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="1" t="n">
+        <v>842870</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>490868</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>217722</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>676667</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>846181</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R32" s="6" t="n">
+        <v>136.88</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="1" t="n">
+        <v>335887</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>167774</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>124529</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>1003422</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>1540495</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="1" t="n">
+        <v>466111</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>236392</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>85587</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>227004</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>352799</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
